--- a/ASP.NET CORE/QC_VOC/VOC/GLOBAL VOC Master LIST_220316 (2).xlsx
+++ b/ASP.NET CORE/QC_VOC/VOC/GLOBAL VOC Master LIST_220316 (2).xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="478">
   <si>
     <t>Nơi nhận F/B</t>
   </si>
@@ -2629,6 +2629,9 @@
       <t xml:space="preserve"> 
 (해당사항 없으면 입력 X)</t>
     </r>
+  </si>
+  <si>
+    <t>22년 누적</t>
   </si>
 </sst>
 </file>
@@ -2816,7 +2819,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2862,6 +2865,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2976,7 +2985,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3203,6 +3212,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3697,12 +3715,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-1423388000"/>
-        <c:axId val="-1262668400"/>
+        <c:axId val="1178286048"/>
+        <c:axId val="1178281152"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-1423388000"/>
+        <c:axId val="1178286048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3802,7 +3820,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1262668400"/>
+        <c:crossAx val="1178281152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3810,7 +3828,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1262668400"/>
+        <c:axId val="1178281152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3821,7 +3839,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1423388000"/>
+        <c:crossAx val="1178286048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -4160,12 +4178,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-1262668944"/>
-        <c:axId val="-1262674384"/>
+        <c:axId val="1178280064"/>
+        <c:axId val="1178280608"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-1262668944"/>
+        <c:axId val="1178280064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4268,7 +4286,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1262674384"/>
+        <c:crossAx val="1178280608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4276,7 +4294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1262674384"/>
+        <c:axId val="1178280608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -4287,7 +4305,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1262668944"/>
+        <c:crossAx val="1178280064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4771,12 +4789,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-1262673840"/>
-        <c:axId val="-1262670032"/>
+        <c:axId val="1178283872"/>
+        <c:axId val="1372058960"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-1262673840"/>
+        <c:axId val="1178283872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4895,7 +4913,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1262670032"/>
+        <c:crossAx val="1372058960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4903,7 +4921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1262670032"/>
+        <c:axId val="1372058960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4914,7 +4932,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1262673840"/>
+        <c:crossAx val="1178283872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5025,7 +5043,7 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5094,7 +5112,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5177,7 +5195,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5283,7 +5301,7 @@
         <xdr:cNvPr id="6" name="차트 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5321,7 +5339,7 @@
         <xdr:cNvPr id="7" name="차트 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5359,7 +5377,7 @@
         <xdr:cNvPr id="8" name="차트 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5397,7 +5415,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5469,7 +5487,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5541,7 +5559,7 @@
         <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5613,7 +5631,7 @@
         <xdr:cNvPr id="15" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5952,13 +5970,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:AC119"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="13" ySplit="5" topLeftCell="Y6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="5" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AC5" sqref="AC5"/>
+      <selection pane="bottomRight" activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6233,7 +6252,7 @@
       <c r="C6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="78" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -6314,7 +6333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:29" s="7" customFormat="1" ht="27" customHeight="1">
+    <row r="7" spans="2:29" s="7" customFormat="1" ht="27" hidden="1" customHeight="1">
       <c r="B7" s="6">
         <v>2</v>
       </c>
@@ -6398,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:29" s="7" customFormat="1" ht="27" customHeight="1">
+    <row r="8" spans="2:29" s="7" customFormat="1" ht="27" hidden="1" customHeight="1">
       <c r="B8" s="6">
         <v>3</v>
       </c>
@@ -6486,10 +6505,10 @@
       <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="78" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -6570,7 +6589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:29" s="7" customFormat="1" ht="27" customHeight="1">
+    <row r="10" spans="2:29" s="7" customFormat="1" ht="27" hidden="1" customHeight="1">
       <c r="B10" s="6">
         <v>5</v>
       </c>
@@ -6742,7 +6761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:29" ht="27" customHeight="1">
+    <row r="12" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B12" s="6">
         <v>7</v>
       </c>
@@ -6826,7 +6845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:29" ht="27" customHeight="1">
+    <row r="13" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B13" s="6">
         <v>8</v>
       </c>
@@ -6994,7 +7013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:29" ht="27" customHeight="1">
+    <row r="15" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B15" s="6">
         <v>10</v>
       </c>
@@ -7078,7 +7097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:29" ht="27" customHeight="1">
+    <row r="16" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B16" s="6">
         <v>11</v>
       </c>
@@ -7162,7 +7181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="7" customFormat="1" ht="25.15" customHeight="1">
+    <row r="17" spans="1:29" s="7" customFormat="1" ht="25.15" hidden="1" customHeight="1">
       <c r="A17"/>
       <c r="B17" s="6">
         <v>12</v>
@@ -7247,7 +7266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="27" customHeight="1">
+    <row r="18" spans="1:29" ht="27" hidden="1" customHeight="1">
       <c r="B18" s="6">
         <v>13</v>
       </c>
@@ -7331,7 +7350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="17" customFormat="1" ht="27" customHeight="1">
+    <row r="19" spans="1:29" s="17" customFormat="1" ht="27" hidden="1" customHeight="1">
       <c r="B19" s="6">
         <v>14</v>
       </c>
@@ -7419,10 +7438,10 @@
       <c r="B20" s="6">
         <v>15</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="77" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="16" t="s">
@@ -7510,7 +7529,7 @@
       <c r="C21" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="77" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="16" t="s">
@@ -7591,7 +7610,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="27" customHeight="1">
+    <row r="22" spans="1:29" ht="27" hidden="1" customHeight="1">
       <c r="B22" s="6">
         <v>17</v>
       </c>
@@ -7767,10 +7786,10 @@
       <c r="B24" s="6">
         <v>19</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="77" t="s">
         <v>177</v>
       </c>
       <c r="E24" s="16" t="s">
@@ -7851,7 +7870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="27" customHeight="1">
+    <row r="25" spans="1:29" ht="27" hidden="1" customHeight="1">
       <c r="B25" s="6">
         <v>20</v>
       </c>
@@ -7939,7 +7958,7 @@
       <c r="B26" s="6">
         <v>21</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="78" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="43" t="s">
@@ -8011,7 +8030,7 @@
         <v>-44587</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="27" customHeight="1">
+    <row r="27" spans="1:29" ht="27" hidden="1" customHeight="1">
       <c r="B27" s="6">
         <v>22</v>
       </c>
@@ -8097,7 +8116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="36" customHeight="1">
+    <row r="28" spans="1:29" ht="36" hidden="1" customHeight="1">
       <c r="B28" s="6">
         <v>23</v>
       </c>
@@ -8185,10 +8204,10 @@
       <c r="B29" s="6">
         <v>24</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="77" t="s">
         <v>177</v>
       </c>
       <c r="E29" s="16" t="s">
@@ -8269,7 +8288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="32.25" customHeight="1">
+    <row r="30" spans="1:29" ht="32.25" hidden="1" customHeight="1">
       <c r="B30" s="6">
         <v>25</v>
       </c>
@@ -8357,7 +8376,7 @@
       <c r="B31" s="6">
         <v>26</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="76" t="s">
         <v>63</v>
       </c>
       <c r="D31" s="16" t="s">
@@ -8441,7 +8460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="51" customHeight="1">
+    <row r="32" spans="1:29" ht="51" hidden="1" customHeight="1">
       <c r="B32" s="11">
         <v>27</v>
       </c>
@@ -8525,7 +8544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:29" ht="43.9" customHeight="1">
+    <row r="33" spans="2:29" ht="43.9" hidden="1" customHeight="1">
       <c r="B33" s="6">
         <v>28</v>
       </c>
@@ -8609,7 +8628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:29" ht="27" customHeight="1">
+    <row r="34" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B34" s="6">
         <v>29</v>
       </c>
@@ -8696,7 +8715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:29" ht="27" customHeight="1">
+    <row r="35" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B35" s="6">
         <v>30</v>
       </c>
@@ -8783,7 +8802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:29" ht="27" customHeight="1">
+    <row r="36" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B36" s="6">
         <v>31</v>
       </c>
@@ -8868,7 +8887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:29" ht="27" customHeight="1">
+    <row r="37" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B37" s="6">
         <v>32</v>
       </c>
@@ -8952,7 +8971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:29" ht="27" customHeight="1">
+    <row r="38" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B38" s="6">
         <v>33</v>
       </c>
@@ -9035,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:29" ht="27" customHeight="1">
+    <row r="39" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B39" s="6">
         <v>34</v>
       </c>
@@ -9119,7 +9138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:29" ht="27" customHeight="1">
+    <row r="40" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B40" s="6">
         <v>35</v>
       </c>
@@ -9207,7 +9226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:29" ht="27" customHeight="1">
+    <row r="41" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B41" s="6">
         <v>36</v>
       </c>
@@ -9275,7 +9294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:29" ht="27" customHeight="1">
+    <row r="42" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B42" s="6">
         <v>37</v>
       </c>
@@ -9363,7 +9382,7 @@
       <c r="B43" s="11">
         <v>38</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="78" t="s">
         <v>34</v>
       </c>
       <c r="D43" s="16" t="s">
@@ -9447,7 +9466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:29" ht="27" customHeight="1">
+    <row r="44" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B44" s="6">
         <v>39</v>
       </c>
@@ -9529,7 +9548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:29" ht="27" customHeight="1">
+    <row r="45" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B45" s="11">
         <v>40</v>
       </c>
@@ -9613,7 +9632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="2:29" ht="27" customHeight="1">
+    <row r="46" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B46" s="6">
         <v>41</v>
       </c>
@@ -9697,7 +9716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:29" ht="27" customHeight="1">
+    <row r="47" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B47" s="6">
         <v>42</v>
       </c>
@@ -9781,7 +9800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:29" ht="27" customHeight="1">
+    <row r="48" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B48" s="6">
         <v>43</v>
       </c>
@@ -9865,7 +9884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:29" ht="27" customHeight="1">
+    <row r="49" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B49" s="6">
         <v>44</v>
       </c>
@@ -9949,7 +9968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:29" s="55" customFormat="1" ht="27" customHeight="1">
+    <row r="50" spans="2:29" s="55" customFormat="1" ht="27" hidden="1" customHeight="1">
       <c r="B50" s="16">
         <v>45</v>
       </c>
@@ -10033,7 +10052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:29" s="55" customFormat="1" ht="27" customHeight="1">
+    <row r="51" spans="2:29" s="55" customFormat="1" ht="27" hidden="1" customHeight="1">
       <c r="B51" s="16">
         <v>46</v>
       </c>
@@ -10123,10 +10142,10 @@
       <c r="B52" s="16">
         <v>47</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="77" t="s">
         <v>34</v>
       </c>
       <c r="E52" s="16" t="s">
@@ -10207,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:29" s="55" customFormat="1" ht="36" customHeight="1">
+    <row r="53" spans="2:29" s="55" customFormat="1" ht="36" hidden="1" customHeight="1">
       <c r="B53" s="16">
         <v>48</v>
       </c>
@@ -10291,7 +10310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:29" ht="27" customHeight="1">
+    <row r="54" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B54" s="6">
         <v>49</v>
       </c>
@@ -10329,7 +10348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:29" ht="27" customHeight="1">
+    <row r="55" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B55" s="6">
         <v>50</v>
       </c>
@@ -10367,7 +10386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:29" ht="27" customHeight="1">
+    <row r="56" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B56" s="6">
         <v>51</v>
       </c>
@@ -10405,7 +10424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:29" ht="27" customHeight="1">
+    <row r="57" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B57" s="6">
         <v>52</v>
       </c>
@@ -10443,7 +10462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:29" ht="27" customHeight="1">
+    <row r="58" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B58" s="6">
         <v>53</v>
       </c>
@@ -10481,7 +10500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:29" ht="27" customHeight="1">
+    <row r="59" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B59" s="6">
         <v>54</v>
       </c>
@@ -10519,7 +10538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:29" ht="27" customHeight="1">
+    <row r="60" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B60" s="6">
         <v>55</v>
       </c>
@@ -10557,7 +10576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:29" ht="27" customHeight="1">
+    <row r="61" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B61" s="6">
         <v>56</v>
       </c>
@@ -10595,7 +10614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:29" ht="27" customHeight="1">
+    <row r="62" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B62" s="6">
         <v>57</v>
       </c>
@@ -10633,7 +10652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:29" ht="27" customHeight="1">
+    <row r="63" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B63" s="6">
         <v>58</v>
       </c>
@@ -10671,7 +10690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:29" ht="27" customHeight="1">
+    <row r="64" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B64" s="6">
         <v>59</v>
       </c>
@@ -10709,7 +10728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:29" ht="27" customHeight="1">
+    <row r="65" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B65" s="6">
         <v>60</v>
       </c>
@@ -10747,7 +10766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:29" ht="27" customHeight="1">
+    <row r="66" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B66" s="6">
         <v>61</v>
       </c>
@@ -10785,7 +10804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:29" ht="27" customHeight="1">
+    <row r="67" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B67" s="6">
         <v>62</v>
       </c>
@@ -10823,7 +10842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:29" ht="27" customHeight="1">
+    <row r="68" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B68" s="6">
         <v>63</v>
       </c>
@@ -10861,7 +10880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:29" ht="27" customHeight="1">
+    <row r="69" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B69" s="6">
         <v>64</v>
       </c>
@@ -10899,7 +10918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:29" ht="27" customHeight="1">
+    <row r="70" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B70" s="6">
         <v>65</v>
       </c>
@@ -10937,7 +10956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:29" ht="27" customHeight="1">
+    <row r="71" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B71" s="6">
         <v>66</v>
       </c>
@@ -10975,7 +10994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:29" ht="27" customHeight="1">
+    <row r="72" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B72" s="6">
         <v>67</v>
       </c>
@@ -11013,7 +11032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:29" ht="27" customHeight="1">
+    <row r="73" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B73" s="6">
         <v>68</v>
       </c>
@@ -11051,7 +11070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:29" ht="27" customHeight="1">
+    <row r="74" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B74" s="6">
         <v>69</v>
       </c>
@@ -11089,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:29" ht="27" customHeight="1">
+    <row r="75" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B75" s="6">
         <v>70</v>
       </c>
@@ -11127,7 +11146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:29" ht="27" customHeight="1">
+    <row r="76" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B76" s="6">
         <v>71</v>
       </c>
@@ -11165,7 +11184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:29" ht="27" customHeight="1">
+    <row r="77" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B77" s="6">
         <v>72</v>
       </c>
@@ -11203,7 +11222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:29" ht="27" customHeight="1">
+    <row r="78" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B78" s="6">
         <v>73</v>
       </c>
@@ -11241,7 +11260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:29" ht="27" customHeight="1">
+    <row r="79" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B79" s="6">
         <v>74</v>
       </c>
@@ -11279,7 +11298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:29" ht="27" customHeight="1">
+    <row r="80" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B80" s="6">
         <v>75</v>
       </c>
@@ -11317,7 +11336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:29" ht="27" customHeight="1">
+    <row r="81" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B81" s="6">
         <v>76</v>
       </c>
@@ -11355,7 +11374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:29" ht="27" customHeight="1">
+    <row r="82" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B82" s="6">
         <v>77</v>
       </c>
@@ -11393,7 +11412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:29" ht="27" customHeight="1">
+    <row r="83" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B83" s="6">
         <v>78</v>
       </c>
@@ -11431,7 +11450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:29" ht="27" customHeight="1">
+    <row r="84" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B84" s="6">
         <v>79</v>
       </c>
@@ -11469,7 +11488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:29" ht="27" customHeight="1">
+    <row r="85" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B85" s="6">
         <v>80</v>
       </c>
@@ -11507,7 +11526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:29" ht="27" customHeight="1">
+    <row r="86" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B86" s="6">
         <v>81</v>
       </c>
@@ -11545,7 +11564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:29" ht="27" customHeight="1">
+    <row r="87" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B87" s="6">
         <v>82</v>
       </c>
@@ -11583,7 +11602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:29" ht="27" customHeight="1">
+    <row r="88" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B88" s="6">
         <v>83</v>
       </c>
@@ -11621,7 +11640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:29" ht="27" customHeight="1">
+    <row r="89" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B89" s="6">
         <v>84</v>
       </c>
@@ -11659,7 +11678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:29" ht="27" customHeight="1">
+    <row r="90" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B90" s="6">
         <v>85</v>
       </c>
@@ -11697,7 +11716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:29" ht="27" customHeight="1">
+    <row r="91" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B91" s="6">
         <v>86</v>
       </c>
@@ -11735,7 +11754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:29" ht="27" customHeight="1">
+    <row r="92" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B92" s="6">
         <v>87</v>
       </c>
@@ -11773,7 +11792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:29" ht="27" customHeight="1">
+    <row r="93" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B93" s="6">
         <v>88</v>
       </c>
@@ -11811,7 +11830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:29" ht="27" customHeight="1">
+    <row r="94" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B94" s="6">
         <v>89</v>
       </c>
@@ -11849,7 +11868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:29" ht="27" customHeight="1">
+    <row r="95" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B95" s="6">
         <v>90</v>
       </c>
@@ -11887,7 +11906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:29" ht="27" customHeight="1">
+    <row r="96" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B96" s="6">
         <v>91</v>
       </c>
@@ -11925,7 +11944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:29" ht="27" customHeight="1">
+    <row r="97" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B97" s="6">
         <v>92</v>
       </c>
@@ -11963,7 +11982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:29" ht="27" customHeight="1">
+    <row r="98" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B98" s="6">
         <v>93</v>
       </c>
@@ -12001,7 +12020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:29" ht="27" customHeight="1">
+    <row r="99" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B99" s="6">
         <v>94</v>
       </c>
@@ -12039,7 +12058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:29" ht="27" customHeight="1">
+    <row r="100" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B100" s="6">
         <v>95</v>
       </c>
@@ -12077,7 +12096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:29" ht="27" customHeight="1">
+    <row r="101" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B101" s="6">
         <v>96</v>
       </c>
@@ -12115,7 +12134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:29" ht="27" customHeight="1">
+    <row r="102" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B102" s="6">
         <v>97</v>
       </c>
@@ -12153,7 +12172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:29" ht="27" customHeight="1">
+    <row r="103" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B103" s="6">
         <v>98</v>
       </c>
@@ -12191,7 +12210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:29" ht="27" customHeight="1">
+    <row r="104" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B104" s="6">
         <v>99</v>
       </c>
@@ -12229,7 +12248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:29" ht="27" customHeight="1">
+    <row r="105" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B105" s="6">
         <v>100</v>
       </c>
@@ -12267,7 +12286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:29" ht="27" customHeight="1">
+    <row r="106" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B106" s="6">
         <v>101</v>
       </c>
@@ -12305,7 +12324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:29" ht="27" customHeight="1">
+    <row r="107" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B107" s="6">
         <v>102</v>
       </c>
@@ -12343,7 +12362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:29" ht="27" customHeight="1">
+    <row r="108" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B108" s="6">
         <v>103</v>
       </c>
@@ -12381,7 +12400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:29" ht="27" customHeight="1">
+    <row r="109" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B109" s="6">
         <v>104</v>
       </c>
@@ -12419,7 +12438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:29" ht="27" customHeight="1">
+    <row r="110" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B110" s="6">
         <v>105</v>
       </c>
@@ -12457,7 +12476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:29" ht="27" customHeight="1">
+    <row r="111" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B111" s="6">
         <v>106</v>
       </c>
@@ -12495,7 +12514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:29" ht="27" customHeight="1">
+    <row r="112" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B112" s="6">
         <v>107</v>
       </c>
@@ -12533,7 +12552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:29" ht="27" customHeight="1">
+    <row r="113" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B113" s="6">
         <v>108</v>
       </c>
@@ -12571,7 +12590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:29" ht="27" customHeight="1">
+    <row r="114" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B114" s="6">
         <v>109</v>
       </c>
@@ -12609,7 +12628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:29" ht="27" customHeight="1">
+    <row r="115" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B115" s="6">
         <v>110</v>
       </c>
@@ -12647,7 +12666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:29" ht="27" customHeight="1">
+    <row r="116" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B116" s="6">
         <v>111</v>
       </c>
@@ -12685,7 +12704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:29" ht="27" customHeight="1">
+    <row r="117" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B117" s="6">
         <v>112</v>
       </c>
@@ -12723,7 +12742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:29" ht="27" customHeight="1">
+    <row r="118" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B118" s="6">
         <v>113</v>
       </c>
@@ -12761,7 +12780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:29" ht="27" customHeight="1">
+    <row r="119" spans="2:29" ht="27" hidden="1" customHeight="1">
       <c r="B119" s="6">
         <v>114</v>
       </c>
@@ -12800,7 +12819,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:AC119"/>
+  <autoFilter ref="A5:AC119">
+    <filterColumn colId="19">
+      <filters>
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B4:B5"/>
   </mergeCells>
@@ -12851,7 +12876,7 @@
   <dimension ref="B2:D53"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13413,7 +13438,7 @@
   <dimension ref="B4:N18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13531,7 +13556,7 @@
     <row r="16" spans="2:14">
       <c r="B16" s="18"/>
       <c r="C16" s="18" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>432</v>

--- a/ASP.NET CORE/QC_VOC/VOC/GLOBAL VOC Master LIST_220316 (2).xlsx
+++ b/ASP.NET CORE/QC_VOC/VOC/GLOBAL VOC Master LIST_220316 (2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VOC Master LIST" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="HQ_주간보고용" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'VOC Master LIST'!$A$5:$AC$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'VOC Master LIST'!$A$5:$AC$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="477">
   <si>
     <t>Nơi nhận F/B</t>
   </si>
@@ -1492,10 +1492,6 @@
     <t>IDT Bunrt</t>
   </si>
   <si>
-    <t>TCL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SFHG89GA002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2097,10 +2093,6 @@
     <t>확산</t>
   </si>
   <si>
-    <t>Corrosion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부식</t>
   </si>
   <si>
@@ -2270,10 +2262,6 @@
   </si>
   <si>
     <t>와이솔 제품 X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MMB Sealing Fail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2633,6 +2621,12 @@
   <si>
     <t>22년 누적</t>
   </si>
+  <si>
+    <t>Corrosion</t>
+  </si>
+  <si>
+    <t>TCL</t>
+  </si>
 </sst>
 </file>
 
@@ -2641,7 +2635,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2818,6 +2812,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2985,7 +2988,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3160,6 +3163,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3214,14 +3226,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3715,12 +3721,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="1178286048"/>
-        <c:axId val="1178281152"/>
+        <c:axId val="742531696"/>
+        <c:axId val="742540400"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1178286048"/>
+        <c:axId val="742531696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3820,7 +3826,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1178281152"/>
+        <c:crossAx val="742540400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3828,7 +3834,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1178281152"/>
+        <c:axId val="742540400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3839,7 +3845,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1178286048"/>
+        <c:crossAx val="742531696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -4178,12 +4184,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="1178280064"/>
-        <c:axId val="1178280608"/>
+        <c:axId val="742540944"/>
+        <c:axId val="742536592"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1178280064"/>
+        <c:axId val="742540944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4286,7 +4292,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1178280608"/>
+        <c:crossAx val="742536592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4294,7 +4300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1178280608"/>
+        <c:axId val="742536592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -4305,7 +4311,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1178280064"/>
+        <c:crossAx val="742540944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4789,12 +4795,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="1178283872"/>
-        <c:axId val="1372058960"/>
+        <c:axId val="742539312"/>
+        <c:axId val="742533872"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1178283872"/>
+        <c:axId val="742539312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4913,7 +4919,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1372058960"/>
+        <c:crossAx val="742533872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4921,7 +4927,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1372058960"/>
+        <c:axId val="742533872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4932,7 +4938,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1178283872"/>
+        <c:crossAx val="742539312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5043,7 +5049,7 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5112,7 +5118,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5195,7 +5201,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5301,7 +5307,7 @@
         <xdr:cNvPr id="6" name="차트 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5339,7 +5345,7 @@
         <xdr:cNvPr id="7" name="차트 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5377,7 +5383,7 @@
         <xdr:cNvPr id="8" name="차트 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5415,7 +5421,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5487,7 +5493,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5559,7 +5565,7 @@
         <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5631,7 +5637,7 @@
         <xdr:cNvPr id="15" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5970,14 +5976,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:AC119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="13" ySplit="5" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="13" ySplit="5" topLeftCell="W24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E121" sqref="E121"/>
+      <selection pane="bottomRight" activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6016,7 +6021,7 @@
   <sheetData>
     <row r="2" spans="2:29" ht="21">
       <c r="B2" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="2:29">
@@ -6076,38 +6081,38 @@
       </c>
     </row>
     <row r="4" spans="2:29" s="9" customFormat="1" ht="45.75" customHeight="1">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="61" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>439</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>442</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>21</v>
@@ -6116,10 +6121,10 @@
         <v>22</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="Q4" s="8" t="s">
         <v>23</v>
@@ -6128,10 +6133,10 @@
         <v>24</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="U4" s="8" t="s">
         <v>25</v>
@@ -6143,7 +6148,7 @@
         <v>27</v>
       </c>
       <c r="X4" s="38" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="Y4" s="8" t="s">
         <v>28</v>
@@ -6152,7 +6157,7 @@
         <v>29</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AB4" s="8" t="s">
         <v>30</v>
@@ -6162,87 +6167,87 @@
       </c>
     </row>
     <row r="5" spans="2:29" s="9" customFormat="1" ht="51">
-      <c r="B5" s="59"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>431</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>436</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>446</v>
-      </c>
       <c r="L5" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="N5" s="10" t="s">
+      <c r="O5" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="P5" s="40" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q5" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="O5" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="P5" s="40" t="s">
+      <c r="R5" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="Q5" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>455</v>
-      </c>
       <c r="S5" s="10" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="T5" s="10" t="s">
         <v>33</v>
       </c>
       <c r="U5" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="X5" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="V5" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="W5" s="10" t="s">
+      <c r="Y5" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="X5" s="40" t="s">
+      <c r="Z5" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="Y5" s="40" t="s">
+      <c r="AA5" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="AC5" s="10" t="s">
         <v>464</v>
-      </c>
-      <c r="Z5" s="40" t="s">
-        <v>465</v>
-      </c>
-      <c r="AA5" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="AB5" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="AC5" s="10" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="6" spans="2:29" s="7" customFormat="1" ht="27" customHeight="1">
@@ -6252,7 +6257,7 @@
       <c r="C6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="60" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -6333,7 +6338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:29" s="7" customFormat="1" ht="27" hidden="1" customHeight="1">
+    <row r="7" spans="2:29" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="B7" s="6">
         <v>2</v>
       </c>
@@ -6417,7 +6422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:29" s="7" customFormat="1" ht="27" hidden="1" customHeight="1">
+    <row r="8" spans="2:29" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="B8" s="6">
         <v>3</v>
       </c>
@@ -6505,10 +6510,10 @@
       <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="60" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -6589,7 +6594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:29" s="7" customFormat="1" ht="27" hidden="1" customHeight="1">
+    <row r="10" spans="2:29" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="B10" s="6">
         <v>5</v>
       </c>
@@ -6761,7 +6766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="12" spans="2:29" ht="27" customHeight="1">
       <c r="B12" s="6">
         <v>7</v>
       </c>
@@ -6845,7 +6850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="13" spans="2:29" ht="27" customHeight="1">
       <c r="B13" s="6">
         <v>8</v>
       </c>
@@ -7013,7 +7018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="15" spans="2:29" ht="27" customHeight="1">
       <c r="B15" s="6">
         <v>10</v>
       </c>
@@ -7097,7 +7102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="16" spans="2:29" ht="27" customHeight="1">
       <c r="B16" s="6">
         <v>11</v>
       </c>
@@ -7181,7 +7186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="7" customFormat="1" ht="25.15" hidden="1" customHeight="1">
+    <row r="17" spans="1:29" s="7" customFormat="1" ht="25.15" customHeight="1">
       <c r="A17"/>
       <c r="B17" s="6">
         <v>12</v>
@@ -7266,7 +7271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="27" hidden="1" customHeight="1">
+    <row r="18" spans="1:29" ht="27" customHeight="1">
       <c r="B18" s="6">
         <v>13</v>
       </c>
@@ -7350,7 +7355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="17" customFormat="1" ht="27" hidden="1" customHeight="1">
+    <row r="19" spans="1:29" s="17" customFormat="1" ht="27" customHeight="1">
       <c r="B19" s="6">
         <v>14</v>
       </c>
@@ -7438,10 +7443,10 @@
       <c r="B20" s="6">
         <v>15</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="59" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="16" t="s">
@@ -7529,7 +7534,7 @@
       <c r="C21" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="59" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="16" t="s">
@@ -7610,7 +7615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="27" hidden="1" customHeight="1">
+    <row r="22" spans="1:29" ht="27" customHeight="1">
       <c r="B22" s="6">
         <v>17</v>
       </c>
@@ -7786,10 +7791,10 @@
       <c r="B24" s="6">
         <v>19</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="77" t="s">
+      <c r="D24" s="59" t="s">
         <v>177</v>
       </c>
       <c r="E24" s="16" t="s">
@@ -7870,7 +7875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="27" hidden="1" customHeight="1">
+    <row r="25" spans="1:29" ht="27" customHeight="1">
       <c r="B25" s="6">
         <v>20</v>
       </c>
@@ -7958,7 +7963,7 @@
       <c r="B26" s="6">
         <v>21</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="43" t="s">
@@ -8030,7 +8035,7 @@
         <v>-44587</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="27" hidden="1" customHeight="1">
+    <row r="27" spans="1:29" ht="27" customHeight="1">
       <c r="B27" s="6">
         <v>22</v>
       </c>
@@ -8116,7 +8121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="36" hidden="1" customHeight="1">
+    <row r="28" spans="1:29" ht="36" customHeight="1">
       <c r="B28" s="6">
         <v>23</v>
       </c>
@@ -8204,10 +8209,10 @@
       <c r="B29" s="6">
         <v>24</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="77" t="s">
+      <c r="D29" s="59" t="s">
         <v>177</v>
       </c>
       <c r="E29" s="16" t="s">
@@ -8288,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="32.25" hidden="1" customHeight="1">
+    <row r="30" spans="1:29" ht="32.25" customHeight="1">
       <c r="B30" s="6">
         <v>25</v>
       </c>
@@ -8376,7 +8381,7 @@
       <c r="B31" s="6">
         <v>26</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="58" t="s">
         <v>63</v>
       </c>
       <c r="D31" s="16" t="s">
@@ -8460,7 +8465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="51" hidden="1" customHeight="1">
+    <row r="32" spans="1:29" ht="51" customHeight="1">
       <c r="B32" s="11">
         <v>27</v>
       </c>
@@ -8544,7 +8549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:29" ht="43.9" hidden="1" customHeight="1">
+    <row r="33" spans="2:29" ht="43.9" customHeight="1">
       <c r="B33" s="6">
         <v>28</v>
       </c>
@@ -8628,7 +8633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="34" spans="2:29" ht="27" customHeight="1">
       <c r="B34" s="6">
         <v>29</v>
       </c>
@@ -8715,7 +8720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="35" spans="2:29" ht="27" customHeight="1">
       <c r="B35" s="6">
         <v>30</v>
       </c>
@@ -8802,7 +8807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="36" spans="2:29" ht="27" customHeight="1">
       <c r="B36" s="6">
         <v>31</v>
       </c>
@@ -8887,7 +8892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="37" spans="2:29" ht="27" customHeight="1">
       <c r="B37" s="6">
         <v>32</v>
       </c>
@@ -8971,7 +8976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="38" spans="2:29" ht="27" customHeight="1">
       <c r="B38" s="6">
         <v>33</v>
       </c>
@@ -9054,7 +9059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="39" spans="2:29" ht="27" customHeight="1">
       <c r="B39" s="6">
         <v>34</v>
       </c>
@@ -9138,7 +9143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="40" spans="2:29" ht="27" customHeight="1">
       <c r="B40" s="6">
         <v>35</v>
       </c>
@@ -9226,7 +9231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="41" spans="2:29" ht="27" customHeight="1">
       <c r="B41" s="6">
         <v>36</v>
       </c>
@@ -9294,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="42" spans="2:29" ht="27" customHeight="1">
       <c r="B42" s="6">
         <v>37</v>
       </c>
@@ -9382,7 +9387,7 @@
       <c r="B43" s="11">
         <v>38</v>
       </c>
-      <c r="C43" s="78" t="s">
+      <c r="C43" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D43" s="16" t="s">
@@ -9402,7 +9407,7 @@
         <v>W7</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>288</v>
+        <v>476</v>
       </c>
       <c r="J43" s="33" t="s">
         <v>37</v>
@@ -9411,13 +9416,13 @@
         <v>56</v>
       </c>
       <c r="L43" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="M43" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="M43" s="16" t="s">
+      <c r="N43" s="16" t="s">
         <v>290</v>
-      </c>
-      <c r="N43" s="16" t="s">
-        <v>291</v>
       </c>
       <c r="O43" s="16" t="s">
         <v>259</v>
@@ -9429,22 +9434,22 @@
         <v>200</v>
       </c>
       <c r="R43" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="S43" s="15" t="s">
         <v>292</v>
-      </c>
-      <c r="S43" s="15" t="s">
-        <v>293</v>
       </c>
       <c r="T43" s="16" t="s">
         <v>47</v>
       </c>
       <c r="U43" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V43" s="16" t="s">
         <v>87</v>
       </c>
       <c r="W43" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="X43" s="16" t="s">
         <v>50</v>
@@ -9466,7 +9471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="44" spans="2:29" ht="27" customHeight="1">
       <c r="B44" s="6">
         <v>39</v>
       </c>
@@ -9493,16 +9498,16 @@
         <v>168</v>
       </c>
       <c r="J44" s="33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K44" s="16" t="s">
         <v>56</v>
       </c>
       <c r="L44" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="M44" s="28" t="s">
         <v>296</v>
-      </c>
-      <c r="M44" s="28" t="s">
-        <v>297</v>
       </c>
       <c r="N44" s="16" t="s">
         <v>258</v>
@@ -9517,7 +9522,7 @@
         <v>200</v>
       </c>
       <c r="R44" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S44" s="15" t="s">
         <v>61</v>
@@ -9548,7 +9553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="45" spans="2:29" ht="27" customHeight="1">
       <c r="B45" s="11">
         <v>40</v>
       </c>
@@ -9572,19 +9577,19 @@
         <v>W8</v>
       </c>
       <c r="I45" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="J45" s="33" t="s">
         <v>299</v>
-      </c>
-      <c r="J45" s="33" t="s">
-        <v>300</v>
       </c>
       <c r="K45" s="16" t="s">
         <v>56</v>
       </c>
       <c r="L45" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M45" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N45" s="16" t="s">
         <v>258</v>
@@ -9599,10 +9604,10 @@
         <v>200</v>
       </c>
       <c r="R45" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="S45" s="15" t="s">
         <v>302</v>
-      </c>
-      <c r="S45" s="15" t="s">
-        <v>303</v>
       </c>
       <c r="T45" s="16" t="s">
         <v>62</v>
@@ -9610,7 +9615,7 @@
       <c r="U45" s="16"/>
       <c r="V45" s="16"/>
       <c r="W45" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X45" s="16" t="s">
         <v>71</v>
@@ -9632,7 +9637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="46" spans="2:29" ht="27" customHeight="1">
       <c r="B46" s="6">
         <v>41</v>
       </c>
@@ -9659,7 +9664,7 @@
         <v>54</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K46" s="16" t="s">
         <v>38</v>
@@ -9668,10 +9673,10 @@
         <v>154</v>
       </c>
       <c r="M46" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="N46" s="16" t="s">
         <v>305</v>
-      </c>
-      <c r="N46" s="16" t="s">
-        <v>306</v>
       </c>
       <c r="O46" s="16" t="s">
         <v>42</v>
@@ -9683,7 +9688,7 @@
         <v>44</v>
       </c>
       <c r="R46" s="23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S46" s="15" t="s">
         <v>61</v>
@@ -9716,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="47" spans="2:29" ht="27" customHeight="1">
       <c r="B47" s="6">
         <v>42</v>
       </c>
@@ -9743,19 +9748,19 @@
         <v>143</v>
       </c>
       <c r="J47" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K47" s="16" t="s">
         <v>38</v>
       </c>
       <c r="L47" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="M47" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="M47" s="16" t="s">
+      <c r="N47" s="16" t="s">
         <v>310</v>
-      </c>
-      <c r="N47" s="16" t="s">
-        <v>311</v>
       </c>
       <c r="O47" s="16" t="s">
         <v>42</v>
@@ -9767,13 +9772,13 @@
         <v>44</v>
       </c>
       <c r="R47" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S47" s="15" t="s">
         <v>79</v>
       </c>
       <c r="T47" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U47" s="16"/>
       <c r="V47" s="16"/>
@@ -9784,7 +9789,7 @@
         <v>141</v>
       </c>
       <c r="Y47" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Z47" s="14">
         <v>44621</v>
@@ -9800,7 +9805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="48" spans="2:29" ht="27" customHeight="1">
       <c r="B48" s="6">
         <v>43</v>
       </c>
@@ -9824,22 +9829,22 @@
         <v>W9</v>
       </c>
       <c r="I48" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="J48" s="28" t="s">
         <v>315</v>
-      </c>
-      <c r="J48" s="28" t="s">
-        <v>316</v>
       </c>
       <c r="K48" s="16" t="s">
         <v>38</v>
       </c>
       <c r="L48" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="M48" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="M48" s="16" t="s">
+      <c r="N48" s="16" t="s">
         <v>318</v>
-      </c>
-      <c r="N48" s="16" t="s">
-        <v>319</v>
       </c>
       <c r="O48" s="16" t="s">
         <v>42</v>
@@ -9851,13 +9856,13 @@
         <v>44</v>
       </c>
       <c r="R48" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S48" s="15" t="s">
         <v>79</v>
       </c>
       <c r="T48" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U48" s="16"/>
       <c r="V48" s="16"/>
@@ -9884,7 +9889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="49" spans="2:29" ht="27" customHeight="1">
       <c r="B49" s="6">
         <v>44</v>
       </c>
@@ -9908,22 +9913,22 @@
         <v>W9</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K49" s="16" t="s">
         <v>38</v>
       </c>
       <c r="L49" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="M49" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="M49" s="16" t="s">
+      <c r="N49" s="16" t="s">
         <v>323</v>
-      </c>
-      <c r="N49" s="16" t="s">
-        <v>324</v>
       </c>
       <c r="O49" s="16" t="s">
         <v>42</v>
@@ -9935,13 +9940,13 @@
         <v>44</v>
       </c>
       <c r="R49" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S49" s="15" t="s">
         <v>61</v>
       </c>
       <c r="T49" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U49" s="16"/>
       <c r="V49" s="16"/>
@@ -9968,7 +9973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:29" s="55" customFormat="1" ht="27" hidden="1" customHeight="1">
+    <row r="50" spans="2:29" s="55" customFormat="1" ht="27" customHeight="1">
       <c r="B50" s="16">
         <v>45</v>
       </c>
@@ -9992,22 +9997,22 @@
         <v>W9</v>
       </c>
       <c r="I50" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="J50" s="16" t="s">
         <v>326</v>
-      </c>
-      <c r="J50" s="16" t="s">
-        <v>327</v>
       </c>
       <c r="K50" s="16" t="s">
         <v>56</v>
       </c>
       <c r="L50" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="M50" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="M50" s="31" t="s">
+      <c r="N50" s="16" t="s">
         <v>329</v>
-      </c>
-      <c r="N50" s="16" t="s">
-        <v>330</v>
       </c>
       <c r="O50" s="16" t="s">
         <v>42</v>
@@ -10019,13 +10024,13 @@
         <v>44</v>
       </c>
       <c r="R50" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S50" s="15" t="s">
         <v>61</v>
       </c>
       <c r="T50" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U50" s="16"/>
       <c r="V50" s="16"/>
@@ -10052,7 +10057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:29" s="55" customFormat="1" ht="27" hidden="1" customHeight="1">
+    <row r="51" spans="2:29" s="55" customFormat="1" ht="27" customHeight="1">
       <c r="B51" s="16">
         <v>46</v>
       </c>
@@ -10076,10 +10081,10 @@
         <v>W9</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K51" s="16" t="s">
         <v>153</v>
@@ -10088,10 +10093,10 @@
         <v>164</v>
       </c>
       <c r="M51" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N51" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O51" s="16" t="s">
         <v>42</v>
@@ -10103,16 +10108,16 @@
         <v>44</v>
       </c>
       <c r="R51" s="23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S51" s="15" t="s">
         <v>61</v>
       </c>
       <c r="T51" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U51" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="V51" s="16"/>
       <c r="W51" s="16" t="s">
@@ -10142,10 +10147,10 @@
       <c r="B52" s="16">
         <v>47</v>
       </c>
-      <c r="C52" s="77" t="s">
+      <c r="C52" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="77" t="s">
+      <c r="D52" s="59" t="s">
         <v>34</v>
       </c>
       <c r="E52" s="16" t="s">
@@ -10177,7 +10182,7 @@
         <v>149</v>
       </c>
       <c r="N52" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O52" s="16" t="s">
         <v>42</v>
@@ -10189,16 +10194,16 @@
         <v>44</v>
       </c>
       <c r="R52" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S52" s="15" t="s">
         <v>149</v>
       </c>
       <c r="T52" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="U52" s="16" t="s">
         <v>338</v>
-      </c>
-      <c r="U52" s="16" t="s">
-        <v>339</v>
       </c>
       <c r="V52" s="16" t="s">
         <v>203</v>
@@ -10226,7 +10231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:29" s="55" customFormat="1" ht="36" hidden="1" customHeight="1">
+    <row r="53" spans="2:29" s="55" customFormat="1" ht="36" customHeight="1">
       <c r="B53" s="16">
         <v>48</v>
       </c>
@@ -10250,10 +10255,10 @@
         <v>W10</v>
       </c>
       <c r="I53" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="J53" s="16" t="s">
         <v>340</v>
-      </c>
-      <c r="J53" s="16" t="s">
-        <v>341</v>
       </c>
       <c r="K53" s="16" t="s">
         <v>153</v>
@@ -10262,10 +10267,10 @@
         <v>247</v>
       </c>
       <c r="M53" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="N53" s="16" t="s">
         <v>342</v>
-      </c>
-      <c r="N53" s="16" t="s">
-        <v>343</v>
       </c>
       <c r="O53" s="16" t="s">
         <v>42</v>
@@ -10277,7 +10282,7 @@
         <v>44</v>
       </c>
       <c r="R53" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S53" s="15" t="s">
         <v>79</v>
@@ -10310,7 +10315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="54" spans="2:29" ht="27" customHeight="1">
       <c r="B54" s="6">
         <v>49</v>
       </c>
@@ -10348,7 +10353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="55" spans="2:29" ht="27" customHeight="1">
       <c r="B55" s="6">
         <v>50</v>
       </c>
@@ -10386,7 +10391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="56" spans="2:29" ht="27" customHeight="1">
       <c r="B56" s="6">
         <v>51</v>
       </c>
@@ -10424,7 +10429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="57" spans="2:29" ht="27" customHeight="1">
       <c r="B57" s="6">
         <v>52</v>
       </c>
@@ -10462,7 +10467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="58" spans="2:29" ht="27" customHeight="1">
       <c r="B58" s="6">
         <v>53</v>
       </c>
@@ -10500,7 +10505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="59" spans="2:29" ht="27" customHeight="1">
       <c r="B59" s="6">
         <v>54</v>
       </c>
@@ -10538,7 +10543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="60" spans="2:29" ht="27" customHeight="1">
       <c r="B60" s="6">
         <v>55</v>
       </c>
@@ -10576,7 +10581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="61" spans="2:29" ht="27" customHeight="1">
       <c r="B61" s="6">
         <v>56</v>
       </c>
@@ -10614,7 +10619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="62" spans="2:29" ht="27" customHeight="1">
       <c r="B62" s="6">
         <v>57</v>
       </c>
@@ -10652,7 +10657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="63" spans="2:29" ht="27" customHeight="1">
       <c r="B63" s="6">
         <v>58</v>
       </c>
@@ -10690,7 +10695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="64" spans="2:29" ht="27" customHeight="1">
       <c r="B64" s="6">
         <v>59</v>
       </c>
@@ -10728,7 +10733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="65" spans="2:29" ht="27" customHeight="1">
       <c r="B65" s="6">
         <v>60</v>
       </c>
@@ -10766,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="66" spans="2:29" ht="27" customHeight="1">
       <c r="B66" s="6">
         <v>61</v>
       </c>
@@ -10804,7 +10809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="67" spans="2:29" ht="27" customHeight="1">
       <c r="B67" s="6">
         <v>62</v>
       </c>
@@ -10842,7 +10847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="68" spans="2:29" ht="27" customHeight="1">
       <c r="B68" s="6">
         <v>63</v>
       </c>
@@ -10880,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="69" spans="2:29" ht="27" customHeight="1">
       <c r="B69" s="6">
         <v>64</v>
       </c>
@@ -10918,7 +10923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="70" spans="2:29" ht="27" customHeight="1">
       <c r="B70" s="6">
         <v>65</v>
       </c>
@@ -10956,7 +10961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="71" spans="2:29" ht="27" customHeight="1">
       <c r="B71" s="6">
         <v>66</v>
       </c>
@@ -10994,7 +10999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="72" spans="2:29" ht="27" customHeight="1">
       <c r="B72" s="6">
         <v>67</v>
       </c>
@@ -11032,7 +11037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="73" spans="2:29" ht="27" customHeight="1">
       <c r="B73" s="6">
         <v>68</v>
       </c>
@@ -11070,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="74" spans="2:29" ht="27" customHeight="1">
       <c r="B74" s="6">
         <v>69</v>
       </c>
@@ -11108,7 +11113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="75" spans="2:29" ht="27" customHeight="1">
       <c r="B75" s="6">
         <v>70</v>
       </c>
@@ -11146,7 +11151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="76" spans="2:29" ht="27" customHeight="1">
       <c r="B76" s="6">
         <v>71</v>
       </c>
@@ -11184,7 +11189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="77" spans="2:29" ht="27" customHeight="1">
       <c r="B77" s="6">
         <v>72</v>
       </c>
@@ -11222,7 +11227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="78" spans="2:29" ht="27" customHeight="1">
       <c r="B78" s="6">
         <v>73</v>
       </c>
@@ -11260,7 +11265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="79" spans="2:29" ht="27" customHeight="1">
       <c r="B79" s="6">
         <v>74</v>
       </c>
@@ -11298,7 +11303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="80" spans="2:29" ht="27" customHeight="1">
       <c r="B80" s="6">
         <v>75</v>
       </c>
@@ -11336,7 +11341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="81" spans="2:29" ht="27" customHeight="1">
       <c r="B81" s="6">
         <v>76</v>
       </c>
@@ -11374,7 +11379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="82" spans="2:29" ht="27" customHeight="1">
       <c r="B82" s="6">
         <v>77</v>
       </c>
@@ -11412,7 +11417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="83" spans="2:29" ht="27" customHeight="1">
       <c r="B83" s="6">
         <v>78</v>
       </c>
@@ -11450,7 +11455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="84" spans="2:29" ht="27" customHeight="1">
       <c r="B84" s="6">
         <v>79</v>
       </c>
@@ -11488,7 +11493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="85" spans="2:29" ht="27" customHeight="1">
       <c r="B85" s="6">
         <v>80</v>
       </c>
@@ -11526,7 +11531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="86" spans="2:29" ht="27" customHeight="1">
       <c r="B86" s="6">
         <v>81</v>
       </c>
@@ -11564,7 +11569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="87" spans="2:29" ht="27" customHeight="1">
       <c r="B87" s="6">
         <v>82</v>
       </c>
@@ -11602,7 +11607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="88" spans="2:29" ht="27" customHeight="1">
       <c r="B88" s="6">
         <v>83</v>
       </c>
@@ -11640,7 +11645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="89" spans="2:29" ht="27" customHeight="1">
       <c r="B89" s="6">
         <v>84</v>
       </c>
@@ -11678,7 +11683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="90" spans="2:29" ht="27" customHeight="1">
       <c r="B90" s="6">
         <v>85</v>
       </c>
@@ -11716,7 +11721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="91" spans="2:29" ht="27" customHeight="1">
       <c r="B91" s="6">
         <v>86</v>
       </c>
@@ -11754,7 +11759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="92" spans="2:29" ht="27" customHeight="1">
       <c r="B92" s="6">
         <v>87</v>
       </c>
@@ -11792,7 +11797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="93" spans="2:29" ht="27" customHeight="1">
       <c r="B93" s="6">
         <v>88</v>
       </c>
@@ -11830,7 +11835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="94" spans="2:29" ht="27" customHeight="1">
       <c r="B94" s="6">
         <v>89</v>
       </c>
@@ -11868,7 +11873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="95" spans="2:29" ht="27" customHeight="1">
       <c r="B95" s="6">
         <v>90</v>
       </c>
@@ -11906,7 +11911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="96" spans="2:29" ht="27" customHeight="1">
       <c r="B96" s="6">
         <v>91</v>
       </c>
@@ -11944,7 +11949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="97" spans="2:29" ht="27" customHeight="1">
       <c r="B97" s="6">
         <v>92</v>
       </c>
@@ -11982,7 +11987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="98" spans="2:29" ht="27" customHeight="1">
       <c r="B98" s="6">
         <v>93</v>
       </c>
@@ -12020,7 +12025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="99" spans="2:29" ht="27" customHeight="1">
       <c r="B99" s="6">
         <v>94</v>
       </c>
@@ -12058,7 +12063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="100" spans="2:29" ht="27" customHeight="1">
       <c r="B100" s="6">
         <v>95</v>
       </c>
@@ -12096,7 +12101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="101" spans="2:29" ht="27" customHeight="1">
       <c r="B101" s="6">
         <v>96</v>
       </c>
@@ -12134,7 +12139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="102" spans="2:29" ht="27" customHeight="1">
       <c r="B102" s="6">
         <v>97</v>
       </c>
@@ -12172,7 +12177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="103" spans="2:29" ht="27" customHeight="1">
       <c r="B103" s="6">
         <v>98</v>
       </c>
@@ -12210,7 +12215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="104" spans="2:29" ht="27" customHeight="1">
       <c r="B104" s="6">
         <v>99</v>
       </c>
@@ -12248,7 +12253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="105" spans="2:29" ht="27" customHeight="1">
       <c r="B105" s="6">
         <v>100</v>
       </c>
@@ -12286,7 +12291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="106" spans="2:29" ht="27" customHeight="1">
       <c r="B106" s="6">
         <v>101</v>
       </c>
@@ -12324,7 +12329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="107" spans="2:29" ht="27" customHeight="1">
       <c r="B107" s="6">
         <v>102</v>
       </c>
@@ -12362,7 +12367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="108" spans="2:29" ht="27" customHeight="1">
       <c r="B108" s="6">
         <v>103</v>
       </c>
@@ -12400,7 +12405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="109" spans="2:29" ht="27" customHeight="1">
       <c r="B109" s="6">
         <v>104</v>
       </c>
@@ -12438,7 +12443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="110" spans="2:29" ht="27" customHeight="1">
       <c r="B110" s="6">
         <v>105</v>
       </c>
@@ -12476,7 +12481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="111" spans="2:29" ht="27" customHeight="1">
       <c r="B111" s="6">
         <v>106</v>
       </c>
@@ -12514,7 +12519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="112" spans="2:29" ht="27" customHeight="1">
       <c r="B112" s="6">
         <v>107</v>
       </c>
@@ -12552,7 +12557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="113" spans="2:29" ht="27" customHeight="1">
       <c r="B113" s="6">
         <v>108</v>
       </c>
@@ -12590,7 +12595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="114" spans="2:29" ht="27" customHeight="1">
       <c r="B114" s="6">
         <v>109</v>
       </c>
@@ -12628,7 +12633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="115" spans="2:29" ht="27" customHeight="1">
       <c r="B115" s="6">
         <v>110</v>
       </c>
@@ -12666,7 +12671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="116" spans="2:29" ht="27" customHeight="1">
       <c r="B116" s="6">
         <v>111</v>
       </c>
@@ -12704,7 +12709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="117" spans="2:29" ht="27" customHeight="1">
       <c r="B117" s="6">
         <v>112</v>
       </c>
@@ -12742,7 +12747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="118" spans="2:29" ht="27" customHeight="1">
       <c r="B118" s="6">
         <v>113</v>
       </c>
@@ -12780,7 +12785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:29" ht="27" hidden="1" customHeight="1">
+    <row r="119" spans="2:29" ht="27" customHeight="1">
       <c r="B119" s="6">
         <v>114</v>
       </c>
@@ -12819,13 +12824,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:AC119">
-    <filterColumn colId="19">
-      <filters>
-        <filter val="Y"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A5:AC5"/>
   <mergeCells count="1">
     <mergeCell ref="B4:B5"/>
   </mergeCells>
@@ -12875,8 +12874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D53"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12889,18 +12888,18 @@
   <sheetData>
     <row r="2" spans="2:4" ht="21">
       <c r="B2" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -12911,7 +12910,7 @@
         <v>184</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -12919,10 +12918,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -12933,7 +12932,7 @@
         <v>225</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -12944,7 +12943,7 @@
         <v>186</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -12952,10 +12951,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -12963,10 +12962,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -12977,7 +12976,7 @@
         <v>202</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -12985,10 +12984,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -12996,10 +12995,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -13007,10 +13006,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -13018,10 +13017,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -13029,10 +13028,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -13040,10 +13039,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -13051,10 +13050,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -13062,10 +13061,10 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>372</v>
+        <v>475</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -13073,10 +13072,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -13084,10 +13083,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -13095,10 +13094,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -13106,10 +13105,10 @@
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -13117,10 +13116,10 @@
         <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -13128,10 +13127,10 @@
         <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -13139,10 +13138,10 @@
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -13150,10 +13149,10 @@
         <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -13164,7 +13163,7 @@
         <v>149</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -13172,10 +13171,10 @@
         <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -13183,10 +13182,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -13197,7 +13196,7 @@
         <v>158</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -13205,10 +13204,10 @@
         <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -13216,10 +13215,10 @@
         <v>29</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -13227,10 +13226,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -13238,10 +13237,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -13249,10 +13248,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -13260,10 +13259,10 @@
         <v>33</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -13271,10 +13270,10 @@
         <v>34</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -13282,10 +13281,10 @@
         <v>35</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -13293,10 +13292,10 @@
         <v>36</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="2:4">
@@ -13304,10 +13303,10 @@
         <v>37</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42" spans="2:4">
@@ -13315,10 +13314,10 @@
         <v>38</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="43" spans="2:4">
@@ -13326,10 +13325,10 @@
         <v>39</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="44" spans="2:4">
@@ -13340,7 +13339,7 @@
         <v>96</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45" spans="2:4">
@@ -13351,7 +13350,7 @@
         <v>119</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46" spans="2:4">
@@ -13359,10 +13358,10 @@
         <v>43</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47" spans="2:4">
@@ -13370,7 +13369,7 @@
         <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>424</v>
+        <v>88</v>
       </c>
       <c r="D47" s="1"/>
     </row>
@@ -13379,10 +13378,10 @@
         <v>45</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="49" spans="2:4">
@@ -13390,10 +13389,10 @@
         <v>46</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -13438,7 +13437,7 @@
   <dimension ref="B4:N18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13448,22 +13447,22 @@
   <sheetData>
     <row r="4" spans="2:14">
       <c r="B4" s="22" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="63" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="60" t="s">
-        <v>474</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>470</v>
-      </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73"/>
+      <c r="C5" s="74" t="s">
+        <v>467</v>
+      </c>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="61"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="18" t="s">
         <v>63</v>
       </c>
@@ -13474,7 +13473,7 @@
         <v>194</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="2:14">
@@ -13490,7 +13489,7 @@
       <c r="E7" s="19">
         <v>8</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="77">
         <f>SUM(C7:E8)</f>
         <v>48</v>
       </c>
@@ -13508,7 +13507,7 @@
       <c r="E8" s="19">
         <v>13</v>
       </c>
-      <c r="F8" s="75"/>
+      <c r="F8" s="78"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="41"/>
@@ -13530,50 +13529,50 @@
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="22" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="2:14">
       <c r="B14" s="22"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="62" t="s">
-        <v>430</v>
-      </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="64"/>
-      <c r="G15" s="65" t="s">
+      <c r="B15" s="65" t="s">
+        <v>427</v>
+      </c>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="G15" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="H15" s="66"/>
-      <c r="I15" s="67"/>
-      <c r="L15" s="68" t="s">
+      <c r="H15" s="69"/>
+      <c r="I15" s="70"/>
+      <c r="L15" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="M15" s="69"/>
-      <c r="N15" s="70"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="73"/>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="18"/>
       <c r="C16" s="18" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="2:14">
